--- a/backend/data/student-database.xlsx
+++ b/backend/data/student-database.xlsx
@@ -1,41 +1,434 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Main_Design\Shop\backend\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD746A7-4992-4678-8B00-694AB056C3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>coins</t>
+  </si>
+  <si>
+    <t>2022ETUIT001</t>
+  </si>
+  <si>
+    <t>ABISHEK  M</t>
+  </si>
+  <si>
+    <t>2022ETUIT002</t>
+  </si>
+  <si>
+    <t>AMIRTHAN  A</t>
+  </si>
+  <si>
+    <t>2022ETUIT003</t>
+  </si>
+  <si>
+    <t>ARULSAKTHI   R</t>
+  </si>
+  <si>
+    <t>2022ETUIT004</t>
+  </si>
+  <si>
+    <t>ASHLYN  ABRAHAM</t>
+  </si>
+  <si>
+    <t>2022ETUIT005</t>
+  </si>
+  <si>
+    <t>ASSHWINI R R</t>
+  </si>
+  <si>
+    <t>2022ETUIT006</t>
+  </si>
+  <si>
+    <t>BALACHANDRAN R R</t>
+  </si>
+  <si>
+    <t>2022ETUIT007</t>
+  </si>
+  <si>
+    <t>BHARANITHARAN  R</t>
+  </si>
+  <si>
+    <t>2022ETUIT008</t>
+  </si>
+  <si>
+    <t>BHARATH  B</t>
+  </si>
+  <si>
+    <t>2022ETUIT009</t>
+  </si>
+  <si>
+    <t>BOOMIKA  M</t>
+  </si>
+  <si>
+    <t>2022ETUIT010</t>
+  </si>
+  <si>
+    <t>BOOPATHY  M</t>
+  </si>
+  <si>
+    <t>2022ETUIT011</t>
+  </si>
+  <si>
+    <t>CHANDRU  S</t>
+  </si>
+  <si>
+    <t>2022ETUIT012</t>
+  </si>
+  <si>
+    <t>DARSANI  V</t>
+  </si>
+  <si>
+    <t>2022ETUIT013</t>
+  </si>
+  <si>
+    <t>DEVARAJ  N</t>
+  </si>
+  <si>
+    <t>2022ETUIT014</t>
+  </si>
+  <si>
+    <t>GAYATHRI  K</t>
+  </si>
+  <si>
+    <t>2022ETUIT015</t>
+  </si>
+  <si>
+    <t>GOKUL  M</t>
+  </si>
+  <si>
+    <t>2022ETUIT016</t>
+  </si>
+  <si>
+    <t>GOKULNATH  S</t>
+  </si>
+  <si>
+    <t>2022ETUIT017</t>
+  </si>
+  <si>
+    <t>HARIPRAKASH  A</t>
+  </si>
+  <si>
+    <t>2022ETUIT018</t>
+  </si>
+  <si>
+    <t>HARIPRASATH  M</t>
+  </si>
+  <si>
+    <t>2022ETUIT019</t>
+  </si>
+  <si>
+    <t>JANARTHAN  M</t>
+  </si>
+  <si>
+    <t>2022ETUIT020</t>
+  </si>
+  <si>
+    <t>JEEVA  V</t>
+  </si>
+  <si>
+    <t>2022ETUIT021</t>
+  </si>
+  <si>
+    <t>JIJENDIRA KUMAR  H</t>
+  </si>
+  <si>
+    <t>2022ETUIT022</t>
+  </si>
+  <si>
+    <t>KAMALI  B</t>
+  </si>
+  <si>
+    <t>2022ETUIT023</t>
+  </si>
+  <si>
+    <t>KARTHIKEYAN  S</t>
+  </si>
+  <si>
+    <t>2022ETUIT024</t>
+  </si>
+  <si>
+    <t>KAVINRAJ  M</t>
+  </si>
+  <si>
+    <t>2022ETUIT025</t>
+  </si>
+  <si>
+    <t>KAVIPRIYAN  K A</t>
+  </si>
+  <si>
+    <t>2022ETUIT026</t>
+  </si>
+  <si>
+    <t>KEERTHIVAISHALI  S</t>
+  </si>
+  <si>
+    <t>2022ETUIT027</t>
+  </si>
+  <si>
+    <t>KIRUTHIKA  K A</t>
+  </si>
+  <si>
+    <t>2022ETUIT028</t>
+  </si>
+  <si>
+    <t>KISHORE KUMAR  P</t>
+  </si>
+  <si>
+    <t>2022ETUIT029</t>
+  </si>
+  <si>
+    <t>KOWSALYA  J</t>
+  </si>
+  <si>
+    <t>2022ETUIT030</t>
+  </si>
+  <si>
+    <t>KOWSALYA  L</t>
+  </si>
+  <si>
+    <t>2022ETUIT031</t>
+  </si>
+  <si>
+    <t>KRISHNAVENI  D</t>
+  </si>
+  <si>
+    <t>2022ETUIT032</t>
+  </si>
+  <si>
+    <t>LOGAPRASANTH  M</t>
+  </si>
+  <si>
+    <t>2022ETUIT033</t>
+  </si>
+  <si>
+    <t>MARISHWARI  S</t>
+  </si>
+  <si>
+    <t>2022ETUIT034</t>
+  </si>
+  <si>
+    <t>MATHAN  S I</t>
+  </si>
+  <si>
+    <t>2022ETUIT035</t>
+  </si>
+  <si>
+    <t>MOHAMED ARIF  A</t>
+  </si>
+  <si>
+    <t>2022ETUIT036</t>
+  </si>
+  <si>
+    <t>MOHANA  K</t>
+  </si>
+  <si>
+    <t>2022ETUIT037</t>
+  </si>
+  <si>
+    <t>MOHANNRAM  A V</t>
+  </si>
+  <si>
+    <t>2022ETUIT038</t>
+  </si>
+  <si>
+    <t>MOULIDHAR  V T</t>
+  </si>
+  <si>
+    <t>2022ETUIT039</t>
+  </si>
+  <si>
+    <t>MRITTIGA  M</t>
+  </si>
+  <si>
+    <t>2022ETUIT040</t>
+  </si>
+  <si>
+    <t>MUKILAN  B</t>
+  </si>
+  <si>
+    <t>2022ETUIT041</t>
+  </si>
+  <si>
+    <t>NANDHANA  S</t>
+  </si>
+  <si>
+    <t>2022ETUIT042</t>
+  </si>
+  <si>
+    <t>NAVEEN  G A</t>
+  </si>
+  <si>
+    <t>2022ETUIT043</t>
+  </si>
+  <si>
+    <t>NIKASH  A</t>
+  </si>
+  <si>
+    <t>2022ETUIT044</t>
+  </si>
+  <si>
+    <t>NITHISH  S</t>
+  </si>
+  <si>
+    <t>2022ETUIT045</t>
+  </si>
+  <si>
+    <t>PRANESH  R</t>
+  </si>
+  <si>
+    <t>2022ETUIT046</t>
+  </si>
+  <si>
+    <t>PRAVEEN RAJ  K</t>
+  </si>
+  <si>
+    <t>2022ETUIT047</t>
+  </si>
+  <si>
+    <t>RADHIKA  S</t>
+  </si>
+  <si>
+    <t>2022ETUIT049</t>
+  </si>
+  <si>
+    <t>RITTHIC UDHAY  B S</t>
+  </si>
+  <si>
+    <t>2022ETUIT050</t>
+  </si>
+  <si>
+    <t>SANTHOSH KUMAR  M</t>
+  </si>
+  <si>
+    <t>2022ETUIT051</t>
+  </si>
+  <si>
+    <t>SARMITHA  R</t>
+  </si>
+  <si>
+    <t>2022ETUIT052</t>
+  </si>
+  <si>
+    <t>SIVASARATHI  J S</t>
+  </si>
+  <si>
+    <t>2022ETUIT053</t>
+  </si>
+  <si>
+    <t>SOWTHANYA  G</t>
+  </si>
+  <si>
+    <t>2022ETUIT054</t>
+  </si>
+  <si>
+    <t>SRIDHAR  S</t>
+  </si>
+  <si>
+    <t>2022ETUIT055</t>
+  </si>
+  <si>
+    <t>SRIMALINI  J M</t>
+  </si>
+  <si>
+    <t>2022ETUIT056</t>
+  </si>
+  <si>
+    <t>SUDHAKAR  M</t>
+  </si>
+  <si>
+    <t>2022ETUIT057</t>
+  </si>
+  <si>
+    <t>SUGANTHI  V</t>
+  </si>
+  <si>
+    <t>2022ETUIT058</t>
+  </si>
+  <si>
+    <t>SUNIL SUJITH  S</t>
+  </si>
+  <si>
+    <t>2022ETUIT059</t>
+  </si>
+  <si>
+    <t>SURENDHIRAN  P</t>
+  </si>
+  <si>
+    <t>2022ETUIT060</t>
+  </si>
+  <si>
+    <t>VIDHYA  C</t>
+  </si>
+  <si>
+    <t>2022ETUIT061</t>
+  </si>
+  <si>
+    <t>VIGNESHWARAN  M R</t>
+  </si>
+  <si>
+    <t>2022ETUIT062</t>
+  </si>
+  <si>
+    <t>VISHALINI  K</t>
+  </si>
+  <si>
+    <t>2022ETUIT063</t>
+  </si>
+  <si>
+    <t>YASWANTH  V</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>gg</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>jj</t>
+  </si>
+  <si>
+    <t>kk</t>
+  </si>
+  <si>
+    <t>ll</t>
+  </si>
+  <si>
+    <t>studentID</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +458,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,773 +797,775 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>userId</v>
-      </c>
-      <c r="B1" t="str">
-        <v>username</v>
-      </c>
-      <c r="C1" t="str">
-        <v>coins</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>2022ETUIT001</v>
-      </c>
-      <c r="B2" t="str">
-        <v>ABISHEK  M</v>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
       <c r="C2">
         <v>102</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2022ETUIT002</v>
-      </c>
-      <c r="B3" t="str">
-        <v>AMIRTHAN  A</v>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>2022ETUIT003</v>
-      </c>
-      <c r="B4" t="str">
-        <v>ARULSAKTHI   R</v>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
       <c r="C4">
         <v>33</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>2022ETUIT004</v>
-      </c>
-      <c r="B5" t="str">
-        <v>ASHLYN  ABRAHAM</v>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>2022ETUIT005</v>
-      </c>
-      <c r="B6" t="str">
-        <v>ASSHWINI R R</v>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
       <c r="C6">
         <v>13</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>2022ETUIT006</v>
-      </c>
-      <c r="B7" t="str">
-        <v>BALACHANDRAN R R</v>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
       <c r="C7">
         <v>55</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>2022ETUIT007</v>
-      </c>
-      <c r="B8" t="str">
-        <v>BHARANITHARAN  R</v>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>2022ETUIT008</v>
-      </c>
-      <c r="B9" t="str">
-        <v>BHARATH  B</v>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>2022ETUIT009</v>
-      </c>
-      <c r="B10" t="str">
-        <v>BOOMIKA  M</v>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>2022ETUIT010</v>
-      </c>
-      <c r="B11" t="str">
-        <v>BOOPATHY  M</v>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>2022ETUIT011</v>
-      </c>
-      <c r="B12" t="str">
-        <v>CHANDRU  S</v>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>2022ETUIT012</v>
-      </c>
-      <c r="B13" t="str">
-        <v>DARSANI  V</v>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>2022ETUIT013</v>
-      </c>
-      <c r="B14" t="str">
-        <v>DEVARAJ  N</v>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>2022ETUIT014</v>
-      </c>
-      <c r="B15" t="str">
-        <v>GAYATHRI  K</v>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>2022ETUIT015</v>
-      </c>
-      <c r="B16" t="str">
-        <v>GOKUL  M</v>
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
       </c>
       <c r="C16">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>2022ETUIT016</v>
-      </c>
-      <c r="B17" t="str">
-        <v>GOKULNATH  S</v>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
       </c>
       <c r="C17">
         <v>10</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>2022ETUIT017</v>
-      </c>
-      <c r="B18" t="str">
-        <v>HARIPRAKASH  A</v>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
       </c>
       <c r="C18">
         <v>10</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>2022ETUIT018</v>
-      </c>
-      <c r="B19" t="str">
-        <v>HARIPRASATH  M</v>
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
       </c>
       <c r="C19">
         <v>10</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>2022ETUIT019</v>
-      </c>
-      <c r="B20" t="str">
-        <v>JANARTHAN  M</v>
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
       </c>
       <c r="C20">
         <v>10</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>2022ETUIT020</v>
-      </c>
-      <c r="B21" t="str">
-        <v>JEEVA  V</v>
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
       </c>
       <c r="C21">
         <v>10</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>2022ETUIT021</v>
-      </c>
-      <c r="B22" t="str">
-        <v>JIJENDIRA KUMAR  H</v>
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
       </c>
       <c r="C22">
         <v>10</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>2022ETUIT022</v>
-      </c>
-      <c r="B23" t="str">
-        <v>KAMALI  B</v>
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
       </c>
       <c r="C23">
         <v>10</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>2022ETUIT023</v>
-      </c>
-      <c r="B24" t="str">
-        <v>KARTHIKEYAN  S</v>
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
       </c>
       <c r="C24">
         <v>10</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>2022ETUIT024</v>
-      </c>
-      <c r="B25" t="str">
-        <v>KAVINRAJ  M</v>
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
       </c>
       <c r="C25">
         <v>10</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>2022ETUIT025</v>
-      </c>
-      <c r="B26" t="str">
-        <v>KAVIPRIYAN  K A</v>
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
       </c>
       <c r="C26">
         <v>10</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>2022ETUIT026</v>
-      </c>
-      <c r="B27" t="str">
-        <v>KEERTHIVAISHALI  S</v>
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
       </c>
       <c r="C27">
         <v>10</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>2022ETUIT027</v>
-      </c>
-      <c r="B28" t="str">
-        <v>KIRUTHIKA  K A</v>
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
       </c>
       <c r="C28">
         <v>10</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>2022ETUIT028</v>
-      </c>
-      <c r="B29" t="str">
-        <v>KISHORE KUMAR  P</v>
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
       </c>
       <c r="C29">
         <v>10</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>2022ETUIT029</v>
-      </c>
-      <c r="B30" t="str">
-        <v>KOWSALYA  J</v>
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
       </c>
       <c r="C30">
         <v>10</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>2022ETUIT030</v>
-      </c>
-      <c r="B31" t="str">
-        <v>KOWSALYA  L</v>
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
       </c>
       <c r="C31">
         <v>10</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>2022ETUIT031</v>
-      </c>
-      <c r="B32" t="str">
-        <v>KRISHNAVENI  D</v>
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
       </c>
       <c r="C32">
         <v>10</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>2022ETUIT032</v>
-      </c>
-      <c r="B33" t="str">
-        <v>LOGAPRASANTH  M</v>
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
       </c>
       <c r="C33">
         <v>10</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>2022ETUIT033</v>
-      </c>
-      <c r="B34" t="str">
-        <v>MARISHWARI  S</v>
+    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
       </c>
       <c r="C34">
         <v>10</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>2022ETUIT034</v>
-      </c>
-      <c r="B35" t="str">
-        <v>MATHAN  S I</v>
+    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
       </c>
       <c r="C35">
         <v>10</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>2022ETUIT035</v>
-      </c>
-      <c r="B36" t="str">
-        <v>MOHAMED ARIF  A</v>
+    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
       </c>
       <c r="C36">
         <v>10</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>2022ETUIT036</v>
-      </c>
-      <c r="B37" t="str">
-        <v>MOHANA  K</v>
+    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
       </c>
       <c r="C37">
         <v>10</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>2022ETUIT037</v>
-      </c>
-      <c r="B38" t="str">
-        <v>MOHANNRAM  A V</v>
+    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
       </c>
       <c r="C38">
         <v>10</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>2022ETUIT038</v>
-      </c>
-      <c r="B39" t="str">
-        <v>MOULIDHAR  V T</v>
+    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
       </c>
       <c r="C39">
         <v>10</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>2022ETUIT039</v>
-      </c>
-      <c r="B40" t="str">
-        <v>MRITTIGA  M</v>
+    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
       </c>
       <c r="C40">
         <v>10</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>2022ETUIT040</v>
-      </c>
-      <c r="B41" t="str">
-        <v>MUKILAN  B</v>
+    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
       </c>
       <c r="C41">
         <v>10</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>2022ETUIT041</v>
-      </c>
-      <c r="B42" t="str">
-        <v>NANDHANA  S</v>
+    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
       </c>
       <c r="C42">
         <v>10</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>2022ETUIT042</v>
-      </c>
-      <c r="B43" t="str">
-        <v>NAVEEN  G A</v>
+    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
       </c>
       <c r="C43">
         <v>10</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>2022ETUIT043</v>
-      </c>
-      <c r="B44" t="str">
-        <v>NIKASH  A</v>
+    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
       </c>
       <c r="C44">
         <v>10</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>2022ETUIT044</v>
-      </c>
-      <c r="B45" t="str">
-        <v>NITHISH  S</v>
+    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
       </c>
       <c r="C45">
         <v>10</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>2022ETUIT045</v>
-      </c>
-      <c r="B46" t="str">
-        <v>PRANESH  R</v>
+    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
       </c>
       <c r="C46">
         <v>10</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>2022ETUIT046</v>
-      </c>
-      <c r="B47" t="str">
-        <v>PRAVEEN RAJ  K</v>
+    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
       </c>
       <c r="C47">
         <v>10</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>2022ETUIT047</v>
-      </c>
-      <c r="B48" t="str">
-        <v>RADHIKA  S</v>
+    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
       </c>
       <c r="C48">
         <v>10</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>2022ETUIT049</v>
-      </c>
-      <c r="B49" t="str">
-        <v>RITTHIC UDHAY  B S</v>
+    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
       </c>
       <c r="C49">
         <v>10</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>2022ETUIT050</v>
-      </c>
-      <c r="B50" t="str">
-        <v>SANTHOSH KUMAR  M</v>
+    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
       </c>
       <c r="C50">
         <v>10</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>2022ETUIT051</v>
-      </c>
-      <c r="B51" t="str">
-        <v>SARMITHA  R</v>
+    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
       </c>
       <c r="C51">
         <v>10</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>2022ETUIT052</v>
-      </c>
-      <c r="B52" t="str">
-        <v>SIVASARATHI  J S</v>
+    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
       </c>
       <c r="C52">
         <v>10</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>2022ETUIT053</v>
-      </c>
-      <c r="B53" t="str">
-        <v>SOWTHANYA  G</v>
+    <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
       </c>
       <c r="C53">
         <v>10</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>2022ETUIT054</v>
-      </c>
-      <c r="B54" t="str">
-        <v>SRIDHAR  S</v>
+    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
       </c>
       <c r="C54">
         <v>10</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>2022ETUIT055</v>
-      </c>
-      <c r="B55" t="str">
-        <v>SRIMALINI  J M</v>
+    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
       </c>
       <c r="C55">
         <v>10</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>2022ETUIT056</v>
-      </c>
-      <c r="B56" t="str">
-        <v>SUDHAKAR  M</v>
+    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
       </c>
       <c r="C56">
         <v>10</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>2022ETUIT057</v>
-      </c>
-      <c r="B57" t="str">
-        <v>SUGANTHI  V</v>
+    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
       </c>
       <c r="C57">
         <v>10</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>2022ETUIT058</v>
-      </c>
-      <c r="B58" t="str">
-        <v>SUNIL SUJITH  S</v>
+    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
       </c>
       <c r="C58">
         <v>10</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>2022ETUIT059</v>
-      </c>
-      <c r="B59" t="str">
-        <v>SURENDHIRAN  P</v>
+    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
       </c>
       <c r="C59">
         <v>10</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>2022ETUIT060</v>
-      </c>
-      <c r="B60" t="str">
-        <v>VIDHYA  C</v>
+    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
       </c>
       <c r="C60">
         <v>10</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>2022ETUIT061</v>
-      </c>
-      <c r="B61" t="str">
-        <v>VIGNESHWARAN  M R</v>
+    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
       </c>
       <c r="C61">
         <v>10</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>2022ETUIT062</v>
-      </c>
-      <c r="B62" t="str">
-        <v>VISHALINI  K</v>
+    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
       </c>
       <c r="C62">
         <v>10</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>2022ETUIT063</v>
-      </c>
-      <c r="B63" t="str">
-        <v>YASWANTH  V</v>
+    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
       </c>
       <c r="C63">
         <v>10</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>731622205001</v>
       </c>
-      <c r="B64" t="str">
-        <v>dd</v>
+      <c r="B64" t="s">
+        <v>126</v>
       </c>
       <c r="C64">
         <v>6</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>731622205002</v>
       </c>
-      <c r="B65" t="str">
-        <v>ff</v>
+      <c r="B65" t="s">
+        <v>127</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>731622205003</v>
       </c>
-      <c r="B66" t="str">
-        <v>gg</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="B66" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>731622205004</v>
       </c>
-      <c r="B67" t="str">
-        <v>hh</v>
-      </c>
-    </row>
-    <row r="68">
+      <c r="B67" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>731622205005</v>
       </c>
-      <c r="B68" t="str">
-        <v>jj</v>
-      </c>
-    </row>
-    <row r="69">
+      <c r="B68" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>731622205007</v>
       </c>
-      <c r="B69" t="str">
-        <v>kk</v>
-      </c>
-    </row>
-    <row r="70">
+      <c r="B69" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>731622205006</v>
       </c>
-      <c r="B70" t="str">
-        <v>ll</v>
+      <c r="B70" t="s">
+        <v>132</v>
       </c>
       <c r="C70">
         <v>30</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C70"/>
+    <ignoredError sqref="A2:C70 B1:C1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>